--- a/Planeación del Proyecto/Lista de Actividades.xlsx
+++ b/Planeación del Proyecto/Lista de Actividades.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Universidad\Trabajos_Mecatronica\9_Semestre\APM\INFERA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Universidad\Trabajos_Mecatronica\9_Semestre\APM\INFERA\Planeación del Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4610C94D-8282-4CDE-A3D0-79E5AFF449EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A026EC34-6962-497C-994E-5D36B65E4446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{68A09A6E-408B-4919-81D0-76BFA5A13445}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{68A09A6E-408B-4919-81D0-76BFA5A13445}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista de Actividades" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
   <si>
     <t>Descripción</t>
   </si>
@@ -205,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -239,48 +239,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -305,13 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -777,7 +734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517D21AD-12E4-4950-B5B7-7D209C5E0CEB}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -1078,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6F841B-46C3-4817-9D0A-BBE900E48555}">
-  <dimension ref="A1:AE36"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AC34" sqref="AC34"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1089,44 +1046,29 @@
     <col min="1" max="1" width="53.44140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="12"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="2">
         <v>1</v>
@@ -1173,53 +1115,8 @@
       <c r="P2" s="2">
         <v>15</v>
       </c>
-      <c r="Q2" s="2">
-        <v>16</v>
-      </c>
-      <c r="R2" s="2">
-        <v>17</v>
-      </c>
-      <c r="S2" s="2">
-        <v>18</v>
-      </c>
-      <c r="T2" s="2">
-        <v>19</v>
-      </c>
-      <c r="U2" s="2">
-        <v>20</v>
-      </c>
-      <c r="V2" s="2">
-        <v>21</v>
-      </c>
-      <c r="W2" s="2">
-        <v>22</v>
-      </c>
-      <c r="X2" s="2">
-        <v>23</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>25</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>27</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>28</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>29</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
@@ -1238,23 +1135,8 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -1273,23 +1155,8 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -1308,23 +1175,8 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1343,23 +1195,8 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
@@ -1378,23 +1215,8 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1413,23 +1235,8 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -1448,23 +1255,8 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1483,23 +1275,8 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
@@ -1518,23 +1295,8 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -1553,23 +1315,8 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
@@ -1588,23 +1335,8 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -1623,23 +1355,8 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1658,23 +1375,8 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
@@ -1693,23 +1395,8 @@
       <c r="N16" s="7"/>
       <c r="O16" s="2"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>27</v>
       </c>
@@ -1728,23 +1415,8 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>7</v>
       </c>
@@ -1763,23 +1435,8 @@
       <c r="N18" s="2"/>
       <c r="O18" s="7"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>28</v>
       </c>
@@ -1798,621 +1455,443 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="2">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2">
+        <v>18</v>
+      </c>
+      <c r="E23" s="2">
+        <v>19</v>
+      </c>
+      <c r="F23" s="2">
+        <v>20</v>
+      </c>
+      <c r="G23" s="2">
+        <v>21</v>
+      </c>
+      <c r="H23" s="2">
+        <v>22</v>
+      </c>
+      <c r="I23" s="2">
+        <v>23</v>
+      </c>
+      <c r="J23" s="2">
+        <v>24</v>
+      </c>
+      <c r="K23" s="2">
+        <v>25</v>
+      </c>
+      <c r="L23" s="2">
+        <v>26</v>
+      </c>
+      <c r="M23" s="2">
+        <v>27</v>
+      </c>
+      <c r="N23" s="2">
+        <v>28</v>
+      </c>
+      <c r="O23" s="2">
+        <v>29</v>
+      </c>
+      <c r="P23" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="8"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="8"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-      <c r="AD35" s="8"/>
-      <c r="AE35" s="1"/>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="8"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:AE1"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="B22:P22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2423,7 +1902,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
